--- a/visio graphies/Chept 05 Flow logic in phase01.xlsx
+++ b/visio graphies/Chept 05 Flow logic in phase01.xlsx
@@ -1,23 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="6660" windowHeight="5030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+  <si>
+    <t>2个</t>
+  </si>
+  <si>
+    <t>5个</t>
+  </si>
+  <si>
+    <t>10个</t>
+  </si>
+  <si>
+    <t>15个</t>
+  </si>
+  <si>
+    <t>20个</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,7 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -71,30 +91,41 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>传统GA</c:v>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$9:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2个</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5个</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10个</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15个</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20个</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$9:$F$13</c:f>
@@ -119,7 +150,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -127,6 +157,29 @@
           <c:tx>
             <c:v>伪分布GA</c:v>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$9:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2个</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5个</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10个</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15个</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20个</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$9:$G$13</c:f>
@@ -151,7 +204,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -159,6 +211,29 @@
           <c:tx>
             <c:v>HPGA</c:v>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$9:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2个</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5个</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10个</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15个</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20个</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$9:$H$13</c:f>
@@ -183,68 +258,309 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="103437312"/>
-        <c:axId val="50427520"/>
+        <c:axId val="51989120"/>
+        <c:axId val="52007296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103437312"/>
+        <c:axId val="51989120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50427520"/>
+        <c:crossAx val="52007296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50427520"/>
+        <c:axId val="52007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103437312"/>
+        <c:crossAx val="51989120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US"/>
+                    <a:t>单位：百秒</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>传统GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2个</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5个</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10个</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15个</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20个</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>伪分布GA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2个</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5个</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10个</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15个</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20个</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HPGA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2个</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5个</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10个</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15个</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20个</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="122682368"/>
+        <c:axId val="58659584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="122682368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58659584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58659584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122682368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US"/>
+                    <a:t>单位：百秒</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -254,16 +570,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -282,11 +598,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +706,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -395,7 +740,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,18 +915,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E9:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E9">
-        <v>2</v>
+    <row r="9" spans="5:8">
+      <c r="E9" t="s">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0.9</v>
@@ -594,9 +938,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E10">
-        <v>5</v>
+    <row r="10" spans="5:8">
+      <c r="E10" t="s">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -608,9 +952,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E11">
-        <v>10</v>
+    <row r="11" spans="5:8">
+      <c r="E11" t="s">
+        <v>2</v>
       </c>
       <c r="F11">
         <v>3250</v>
@@ -622,9 +966,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E12">
-        <v>15</v>
+    <row r="12" spans="5:8">
+      <c r="E12" t="s">
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -636,9 +980,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E13">
-        <v>20</v>
+    <row r="13" spans="5:8">
+      <c r="E13" t="s">
+        <v>4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -648,6 +992,76 @@
       </c>
       <c r="H13">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>782</v>
+      </c>
+      <c r="H28">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>23250</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>12074</v>
       </c>
     </row>
   </sheetData>
@@ -659,12 +1073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,12 +1086,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
